--- a/Data/Configuration/Categories.xlsx
+++ b/Data/Configuration/Categories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\daily-budget\Data\Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc7d3f9727fbefe3/Martin T/Økonomi/Budget/Data/Configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE879476-F1E3-4F42-A33D-09D35EF9ADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{35339A45-8747-4692-AD3D-4F9B88B556C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D31C71A-4AA3-4E0C-A31D-22A28A28D395}"/>
   <bookViews>
-    <workbookView xWindow="6290" yWindow="4290" windowWidth="28800" windowHeight="15450" xr2:uid="{C1B112DA-DE15-4DA1-8187-B689EA2C0F78}"/>
+    <workbookView xWindow="28210" yWindow="0" windowWidth="10280" windowHeight="20970" xr2:uid="{C1B112DA-DE15-4DA1-8187-B689EA2C0F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>MainCategori</t>
   </si>
@@ -46,12 +46,24 @@
     <t>Forsikring</t>
   </si>
   <si>
+    <t>Bil - Passat</t>
+  </si>
+  <si>
     <t>Bil - Tesla</t>
   </si>
   <si>
     <t>Ulykke Martin</t>
   </si>
   <si>
+    <t>Ulykke Rasmus</t>
+  </si>
+  <si>
+    <t>Ulykke Magnus</t>
+  </si>
+  <si>
+    <t>Ulykke Christina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hus </t>
   </si>
   <si>
@@ -73,6 +85,15 @@
     <t>Diverse</t>
   </si>
   <si>
+    <t>Grænsehandel</t>
+  </si>
+  <si>
+    <t>Dagligvare - Restaurant</t>
+  </si>
+  <si>
+    <t>Dagligvare - Frokost</t>
+  </si>
+  <si>
     <t>Hus</t>
   </si>
   <si>
@@ -100,6 +121,12 @@
     <t>Fitness</t>
   </si>
   <si>
+    <t>Vinduespudser</t>
+  </si>
+  <si>
+    <t>Afbetaling bil</t>
+  </si>
+  <si>
     <t>Service og Reparation Tesla</t>
   </si>
   <si>
@@ -121,6 +148,18 @@
     <t>Service og Reparation Passat</t>
   </si>
   <si>
+    <t>Aarhus Boligforening</t>
+  </si>
+  <si>
+    <t>Mail og domæne</t>
+  </si>
+  <si>
+    <t>Office 365 &amp; antivirus</t>
+  </si>
+  <si>
+    <t>Børneopsparing</t>
+  </si>
+  <si>
     <t>Børnehave og SFO</t>
   </si>
   <si>
@@ -169,12 +208,30 @@
     <t>Streaming - Spotify</t>
   </si>
   <si>
+    <t>Indtægt</t>
+  </si>
+  <si>
+    <t>Andet</t>
+  </si>
+  <si>
+    <t>Løn - Christina</t>
+  </si>
+  <si>
+    <t>Løn - Martin</t>
+  </si>
+  <si>
     <t>Grundskyld</t>
   </si>
   <si>
     <t>Grundejer forening</t>
   </si>
   <si>
+    <t>Strøm - Elbil</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
     <t>Brændstof</t>
   </si>
   <si>
@@ -193,9 +250,15 @@
     <t>Biograf</t>
   </si>
   <si>
+    <t>Legetøj</t>
+  </si>
+  <si>
     <t>Vejfond</t>
   </si>
   <si>
+    <t>Fritidsinteresser</t>
+  </si>
+  <si>
     <t>Koncerter</t>
   </si>
   <si>
@@ -203,6 +266,9 @@
   </si>
   <si>
     <t>Bil - Mercedes</t>
+  </si>
+  <si>
+    <t>Ferie - Udsyr</t>
   </si>
   <si>
     <t>Service og Reparation Trailer</t>
@@ -563,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91431EDA-4AAE-4EF3-85D4-464EAE0FFADF}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -605,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -642,338 +708,506 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
         <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
